--- a/Requirements/GameKubeRequirementsV1.xlsx
+++ b/Requirements/GameKubeRequirementsV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim van Antwerpen\Documents\!Fontys\Semester6\gamekube\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E05730F-DE1B-47A4-BBBE-EB6D5824DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893DDDF-CFB0-412C-B445-1C826DF099E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53CCDC5A-D276-4B93-A537-42D94B45168C}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9A54B95-CD75-4F34-845E-E6DE157B9E91}" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:D24" xr:uid="{E9A54B95-CD75-4F34-845E-E6DE157B9E91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
     <sortCondition ref="B1:B24" customList="Must,Should,Could,Would"/>
   </sortState>
   <tableColumns count="4">
@@ -547,7 +547,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -700,29 +700,29 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -752,11 +752,10 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -764,8 +763,9 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>

--- a/Requirements/GameKubeRequirementsV1.xlsx
+++ b/Requirements/GameKubeRequirementsV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim van Antwerpen\Documents\!Fontys\Semester6\gamekube\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893DDDF-CFB0-412C-B445-1C826DF099E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45709D95-D156-4A76-9CE5-6983291DFC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53CCDC5A-D276-4B93-A537-42D94B45168C}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +608,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -642,6 +643,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -653,6 +655,7 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -664,6 +667,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
